--- a/ResultadoEleicoesDistritos/R. A. MADEIRA_SÃO VICENTE.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. MADEIRA_SÃO VICENTE.xlsx
@@ -597,28 +597,28 @@
         <v>1748</v>
       </c>
       <c r="H2" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I2" t="n">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J2" t="n">
-        <v>740</v>
+        <v>755</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -627,34 +627,34 @@
         <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S2" t="n">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="T2" t="n">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="U2" t="n">
         <v>12</v>
       </c>
       <c r="V2" t="n">
-        <v>1107</v>
+        <v>1094</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1109</v>
+        <v>1098</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
